--- a/Data/0_GlobalData.xlsx
+++ b/Data/0_GlobalData.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
     <sheet name="Fundamentals" sheetId="1" r:id="rId2"/>
     <sheet name="Load" sheetId="3" r:id="rId3"/>
-    <sheet name="Generators_FuelMix" sheetId="4" r:id="rId4"/>
-    <sheet name="Generators_Other" sheetId="5" r:id="rId5"/>
-    <sheet name="Generators_Categories" sheetId="6" r:id="rId6"/>
+    <sheet name="MWP" sheetId="8" r:id="rId4"/>
+    <sheet name="Generators_FuelMix" sheetId="4" r:id="rId5"/>
+    <sheet name="Generators_Other" sheetId="5" r:id="rId6"/>
+    <sheet name="Generators_Categories" sheetId="6" r:id="rId7"/>
+    <sheet name="HourlyVariation" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
   <si>
     <t>Coal</t>
   </si>
@@ -212,6 +214,42 @@
   </si>
   <si>
     <t>Load/Load</t>
+  </si>
+  <si>
+    <t>id2hvt/id</t>
+  </si>
+  <si>
+    <t>id2hvt/hvt</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>CapVariation/h/hvt</t>
+  </si>
+  <si>
+    <t>LoadVariation</t>
+  </si>
+  <si>
+    <t>LoadVariation/l</t>
+  </si>
+  <si>
+    <t>LoadVariation/h</t>
+  </si>
+  <si>
+    <t>LoadVariation/LoadVariation</t>
+  </si>
+  <si>
+    <t>Coefficient in [0,1]. Sums to 1 over hours (h).</t>
+  </si>
+  <si>
+    <t>CapVariation</t>
+  </si>
+  <si>
+    <t>Coefficient in [0,1]. Scales hourly generation capacity compared to max.</t>
+  </si>
+  <si>
+    <t>MWP_LoadShedding</t>
   </si>
 </sst>
 </file>
@@ -543,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -629,6 +667,22 @@
       </c>
       <c r="B10" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -642,7 +696,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1117,28 +1171,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.23046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.07421875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>59</v>
       </c>
       <c r="B2">
         <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>1-SUM(E2:E4)</f>
+        <v>9.9999999999999978E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1148,10 +1261,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1628,12 +1764,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1784,12 +1920,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1798,76 +1934,218 @@
     <col min="2" max="2" width="12.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.53515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+      <c r="D5">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/0_GlobalData.xlsx
+++ b/Data/0_GlobalData.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
     <sheet name="Fundamentals" sheetId="1" r:id="rId2"/>
     <sheet name="Load" sheetId="3" r:id="rId3"/>
-    <sheet name="MWP" sheetId="8" r:id="rId4"/>
+    <sheet name="Scalars" sheetId="8" r:id="rId4"/>
     <sheet name="Generators_FuelMix" sheetId="4" r:id="rId5"/>
     <sheet name="Generators_Other" sheetId="5" r:id="rId6"/>
     <sheet name="Generators_Categories" sheetId="6" r:id="rId7"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
   <si>
     <t>Coal</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>MWP_LoadShedding</t>
+  </si>
+  <si>
+    <t>CO2Cap</t>
+  </si>
+  <si>
+    <t>RESCap</t>
   </si>
 </sst>
 </file>
@@ -587,17 +593,17 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -605,7 +611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -613,7 +619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -621,7 +627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -629,7 +635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -637,7 +643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -645,7 +651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -653,7 +659,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -661,7 +667,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -669,7 +675,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -677,7 +683,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -699,17 +705,17 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="25.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -732,7 +738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -755,7 +761,7 @@
         <v>35.513338652552946</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -778,7 +784,7 @@
         <v>3.2454153858969224</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -795,7 +801,7 @@
         <v>7.9189999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -812,7 +818,7 @@
         <v>7.4099999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -829,7 +835,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -846,7 +852,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -863,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -880,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -897,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -914,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -931,7 +937,7 @@
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -948,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -965,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -982,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>0.27199999999999996</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>1</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>6.9767441860465129E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1071,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>7</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>8</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>9</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>13</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -1173,20 +1179,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.61328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.23046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>59</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>59</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>59</v>
       </c>
@@ -1261,20 +1267,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
       <c r="B1">
         <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1290,12 +1312,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1324,7 +1346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1382,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1411,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1440,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1498,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1556,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1614,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1643,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1701,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1730,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1772,15 +1794,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1794,7 +1816,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1809,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1824,7 +1846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1839,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1854,7 +1876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1869,7 +1891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1884,7 +1906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1899,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1928,13 +1950,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1948,7 +1970,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1962,7 +1984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1976,7 +1998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1990,7 +2012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2004,7 +2026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2018,7 +2040,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2032,7 +2054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2046,7 +2068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2069,16 +2091,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2092,7 +2114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2106,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2120,7 +2142,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2134,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Data/0_GlobalData.xlsx
+++ b/Data/0_GlobalData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="80">
   <si>
     <t>Coal</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t>RESCap</t>
+  </si>
+  <si>
+    <t>FOM/id</t>
+  </si>
+  <si>
+    <t>FOM/FOM</t>
+  </si>
+  <si>
+    <t>FOM</t>
+  </si>
+  <si>
+    <t>GJ/h</t>
+  </si>
+  <si>
+    <t>( 1000 EUR / (GJ/h generating capacity) ) / year</t>
   </si>
 </sst>
 </file>
@@ -587,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +679,7 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -677,17 +692,25 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>70</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1269,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1332,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1825,7 @@
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1815,8 +1838,14 @@
       <c r="D1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1830,8 +1859,15 @@
       <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <f>31000/(1000*3.6)</f>
+        <v>8.6111111111111107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1845,8 +1881,15 @@
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <f>29300/(1000*3.6)</f>
+        <v>8.1388888888888893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1860,8 +1903,15 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <f>28800/(1000*3.6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1875,8 +1925,15 @@
       <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <f>28800/(1000*3.6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1890,8 +1947,15 @@
       <c r="D6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <f>28800/(1000*3.6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1905,8 +1969,15 @@
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <f>29300/(1000*3.6)+0.5</f>
+        <v>8.6388888888888893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1920,8 +1991,15 @@
       <c r="D8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <f>50000/(1000*3.6)</f>
+        <v>13.888888888888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1934,6 +2012,13 @@
       </c>
       <c r="D9">
         <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <f>11300/(1000*3.6)</f>
+        <v>3.1388888888888888</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2177,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,7 +2252,7 @@
         <v>0.8</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/0_GlobalData.xlsx
+++ b/Data/0_GlobalData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -207,12 +207,6 @@
     <t>GJ input / GJ output</t>
   </si>
   <si>
-    <t>Load/l</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
     <t>Load/Load</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
     <t>LoadVariation</t>
   </si>
   <si>
-    <t>LoadVariation/l</t>
-  </si>
-  <si>
     <t>LoadVariation/h</t>
   </si>
   <si>
@@ -271,6 +262,15 @@
   </si>
   <si>
     <t>( 1000 EUR / (GJ/h generating capacity) ) / year</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>Load/c</t>
+  </si>
+  <si>
+    <t>LoadVariation/c</t>
   </si>
 </sst>
 </file>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,26 +692,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,30 +1217,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1300,7 +1300,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>25</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1839,10 +1839,10 @@
         <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2049,10 +2049,10 @@
         <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2164,7 +2164,7 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2176,7 +2176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2187,7 +2187,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>51</v>
@@ -2196,7 +2196,7 @@
         <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/Data/0_GlobalData.xlsx
+++ b/Data/0_GlobalData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -725,7 +725,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1814,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,7 +2032,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,7 +2176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/Data/0_GlobalData.xlsx
+++ b/Data/0_GlobalData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -605,7 +605,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1293,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/0_GlobalData.xlsx
+++ b/Data/0_GlobalData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -608,17 +608,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -626,7 +626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -634,7 +634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -642,7 +642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -650,7 +650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -658,7 +658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -666,7 +666,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -674,7 +674,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -682,7 +682,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -690,7 +690,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -698,7 +698,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -706,7 +706,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -728,17 +728,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -761,7 +761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -784,7 +784,7 @@
         <v>35.513338652552946</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -807,7 +807,7 @@
         <v>3.2454153858969224</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -824,7 +824,7 @@
         <v>7.9189999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -841,7 +841,7 @@
         <v>7.4099999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -858,7 +858,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -875,7 +875,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -960,7 +960,7 @@
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0.27199999999999996</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>1</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>6.9767441860465129E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>5</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>9</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -1206,16 +1206,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>77</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>77</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>77</v>
       </c>
@@ -1296,9 +1296,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1331,16 +1331,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1369,7 +1367,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1427,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1456,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1485,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1514,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1601,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1630,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1659,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1688,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1717,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1746,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1775,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1813,19 +1811,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1845,7 +1843,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1867,7 +1865,7 @@
         <v>8.6111111111111107</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1889,7 +1887,7 @@
         <v>8.1388888888888893</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1911,7 +1909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1933,7 +1931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1955,7 +1953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1977,7 +1975,7 @@
         <v>8.6388888888888893</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1999,7 +1997,7 @@
         <v>13.888888888888889</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2035,13 +2033,13 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -2055,7 +2053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2097,7 +2095,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2111,7 +2109,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2125,7 +2123,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2139,7 +2137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2153,7 +2151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2180,12 +2178,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -2199,7 +2197,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2213,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2227,7 +2225,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2241,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
